--- a/ClosedXML.Report/src/ClosedXML.Report.Sample/ClosedXML.Report.Sample/Data/ProductListTemplate.xlsx
+++ b/ClosedXML.Report/src/ClosedXML.Report.Sample/ClosedXML.Report.Sample/Data/ProductListTemplate.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Product</t>
   </si>
   <si>
-    <t>Template</t>
+    <t>Template v2</t>
   </si>
   <si>
     <t>by worawut.o</t>
@@ -34,19 +34,43 @@
     <t>จำนวน</t>
   </si>
   <si>
-    <t>{{Item.Code}}</t>
-  </si>
-  <si>
-    <t>{{Item.Name}}</t>
-  </si>
-  <si>
-    <t>{{Item.Price}}</t>
-  </si>
-  <si>
-    <t>{{Item.Quantity}}</t>
+    <t>{{items.Code}}</t>
+  </si>
+  <si>
+    <t>{{items.Name}}</t>
+  </si>
+  <si>
+    <t>{{items.Price}}</t>
+  </si>
+  <si>
+    <t>{{items.Quantity}}</t>
   </si>
   <si>
     <t>&lt;&lt;Sum&gt;&gt;</t>
+  </si>
+  <si>
+    <t>{{Products.Code}}</t>
+  </si>
+  <si>
+    <t>{{Products.Name}}</t>
+  </si>
+  <si>
+    <t>{{Products.Price}}</t>
+  </si>
+  <si>
+    <t>{{Products.Quantity}}</t>
+  </si>
+  <si>
+    <t>{{Products.code}}</t>
+  </si>
+  <si>
+    <t>{{Products.name}}</t>
+  </si>
+  <si>
+    <t>{{Products.price}}</t>
+  </si>
+  <si>
+    <t>{{Products.quantity}}</t>
   </si>
 </sst>
 </file>
@@ -102,13 +126,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -117,7 +141,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -335,6 +359,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.29"/>
+    <col customWidth="1" min="2" max="2" width="16.86"/>
+    <col customWidth="1" min="5" max="5" width="16.0"/>
+    <col customWidth="1" min="6" max="6" width="18.86"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
@@ -344,7 +374,7 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -359,16 +389,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -387,7 +417,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
@@ -396,12 +426,42 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
